--- a/WillStokes-Week2Homework.xlsx
+++ b/WillStokes-Week2Homework.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27316"/>
   <workbookPr hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1E7CD1-4014-422D-A326-765988113376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57594664-7188-44FC-AA2F-AB3229A08EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Months </t>
   </si>
   <si>
-    <t>Interest Rates</t>
+    <t>Interest Paid</t>
   </si>
   <si>
     <t>Total Loan Amount</t>
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -208,6 +208,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,7 +247,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -260,7 +261,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Chart 2</a:t>
+              <a:t>Credit Card, Balance, and Monthly Payment</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -269,8 +270,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.40978455818022741"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.14059711286089238"/>
+          <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -286,7 +287,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -444,19 +445,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14666.666666666666</c:v>
+                  <c:v>806.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3900</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9100</c:v>
+                  <c:v>412.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6760</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +685,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -698,7 +699,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Chart 1</a:t>
+              <a:t>Credit Cards and Monthly Payments</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -716,7 +717,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -793,19 +794,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14666.666666666666</c:v>
+                  <c:v>806.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3900</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9100</c:v>
+                  <c:v>412.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6760</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2781,7 +2782,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2829,23 +2830,23 @@
       <c r="B4">
         <v>2000</v>
       </c>
-      <c r="C4">
-        <v>21</v>
+      <c r="C4" s="5">
+        <v>0.21</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
         <f>(B4*C4)</f>
-        <v>42000</v>
+        <v>420</v>
       </c>
       <c r="F4">
         <f>(B4+E4)</f>
-        <v>44000</v>
+        <v>2420</v>
       </c>
       <c r="G4">
         <f>(F4/D4)</f>
-        <v>14666.666666666666</v>
+        <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2855,23 +2856,23 @@
       <c r="B5">
         <v>450</v>
       </c>
-      <c r="C5">
-        <v>25</v>
+      <c r="C5" s="5">
+        <v>0.25</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E8" si="0">(B5*C5)</f>
-        <v>11250</v>
+        <v>112.5</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F8" si="1">(B5+E5)</f>
-        <v>11700</v>
+        <v>562.5</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G8" si="2">(F5/D5)</f>
-        <v>3900</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2881,23 +2882,23 @@
       <c r="B6">
         <v>975</v>
       </c>
-      <c r="C6">
-        <v>27</v>
+      <c r="C6" s="5">
+        <v>0.27</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>26325</v>
+        <v>263.25</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>27300</v>
+        <v>1238.25</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>9100</v>
+        <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2907,23 +2908,23 @@
       <c r="B7">
         <v>1500</v>
       </c>
-      <c r="C7">
-        <v>15</v>
+      <c r="C7" s="5">
+        <v>0.15</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>225</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>24000</v>
+        <v>1725</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2933,23 +2934,23 @@
       <c r="B8">
         <v>780</v>
       </c>
-      <c r="C8">
-        <v>25</v>
+      <c r="C8" s="5">
+        <v>0.25</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>19500</v>
+        <v>195</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>20280</v>
+        <v>975</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>6760</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
